--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.595593</v>
+        <v>0.9110303333333333</v>
       </c>
       <c r="H2">
-        <v>4.786779</v>
+        <v>2.733091</v>
       </c>
       <c r="I2">
-        <v>0.04211707711903992</v>
+        <v>0.01687983944416496</v>
       </c>
       <c r="J2">
-        <v>0.04211707711903992</v>
+        <v>0.01687983944416496</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9654709859979999</v>
+        <v>0.5512517002753332</v>
       </c>
       <c r="R2">
-        <v>8.689238873981999</v>
+        <v>4.961265302477999</v>
       </c>
       <c r="S2">
-        <v>0.04211707711903992</v>
+        <v>0.01687983944416496</v>
       </c>
       <c r="T2">
-        <v>0.04211707711903992</v>
+        <v>0.01687983944416496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>1.588543</v>
       </c>
       <c r="I3">
-        <v>0.0139769953945881</v>
+        <v>0.009810998166600431</v>
       </c>
       <c r="J3">
-        <v>0.0139769953945881</v>
+        <v>0.009810998166600433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -638,10 +638,10 @@
         <v>2.883615389094</v>
       </c>
       <c r="S3">
-        <v>0.0139769953945881</v>
+        <v>0.009810998166600431</v>
       </c>
       <c r="T3">
-        <v>0.0139769953945881</v>
+        <v>0.009810998166600433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.63002466666667</v>
+        <v>22.733882</v>
       </c>
       <c r="H4">
-        <v>46.890074</v>
+        <v>68.201646</v>
       </c>
       <c r="I4">
-        <v>0.4125682139859577</v>
+        <v>0.4212200890156147</v>
       </c>
       <c r="J4">
-        <v>0.4125682139859577</v>
+        <v>0.4212200890156148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.457509105454664</v>
+        <v>13.755953723852</v>
       </c>
       <c r="R4">
-        <v>85.11758194909198</v>
+        <v>123.803583514668</v>
       </c>
       <c r="S4">
-        <v>0.4125682139859577</v>
+        <v>0.4212200890156147</v>
       </c>
       <c r="T4">
-        <v>0.4125682139859577</v>
+        <v>0.4212200890156148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9241566666666667</v>
+        <v>0.575237</v>
       </c>
       <c r="H5">
-        <v>2.77247</v>
+        <v>1.725711</v>
       </c>
       <c r="I5">
-        <v>0.02439392602002821</v>
+        <v>0.01065816125662459</v>
       </c>
       <c r="J5">
-        <v>0.02439392602002821</v>
+        <v>0.01065816125662459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5591942608066666</v>
+        <v>0.348067855382</v>
       </c>
       <c r="R5">
-        <v>5.03274834726</v>
+        <v>3.132610698438</v>
       </c>
       <c r="S5">
-        <v>0.02439392602002821</v>
+        <v>0.01065816125662459</v>
       </c>
       <c r="T5">
-        <v>0.02439392602002821</v>
+        <v>0.01065816125662459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.20541533333333</v>
+        <v>29.221841</v>
       </c>
       <c r="H6">
-        <v>57.616246</v>
+        <v>87.66552300000001</v>
       </c>
       <c r="I6">
-        <v>0.506943787480386</v>
+        <v>0.5414309121169952</v>
       </c>
       <c r="J6">
-        <v>0.506943787480386</v>
+        <v>0.5414309121169953</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>11.62092794238533</v>
+        <v>17.681726883326</v>
       </c>
       <c r="R6">
-        <v>104.588351481468</v>
+        <v>159.135541949934</v>
       </c>
       <c r="S6">
-        <v>0.506943787480386</v>
+        <v>0.5414309121169952</v>
       </c>
       <c r="T6">
-        <v>0.506943787480386</v>
+        <v>0.5414309121169953</v>
       </c>
     </row>
   </sheetData>
